--- a/Outputs/1. Budget/Output Files/2000000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Output Files/2000000/Output_7_29.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2265351.362179556</v>
+        <v>2261190.585011891</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>19.83441263374693</v>
+        <v>148.0435066463853</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>99.53145434773528</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>399.0984480420028</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>137.9593341407855</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>244.9655593200556</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.9978294690249</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>126.0887386816669</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>109.5620343215717</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,10 +1584,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2419515106229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>69.00696427191518</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.96411613815253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>9.062523356267228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>58.40943379163138</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>24.6760982607864</v>
       </c>
       <c r="C25" t="n">
-        <v>32.52207646037897</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>42.76843874739671</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486461</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C31" t="n">
-        <v>137.2501106651297</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175847704</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>77.83107808278487</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.0900968852905</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>80.76624753276687</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>94.08507244101621</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.33742371513254</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.59371373186862</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292652</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851122</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247769</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734103036</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983829</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>173.6268892744746</v>
       </c>
       <c r="T46" t="n">
-        <v>165.8745751493882</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2677.114330782114</v>
+        <v>2492.581505946306</v>
       </c>
       <c r="T2" t="n">
-        <v>2458.479663754177</v>
+        <v>2492.581505946306</v>
       </c>
       <c r="U2" t="n">
-        <v>2458.479663754177</v>
+        <v>2492.581505946306</v>
       </c>
       <c r="V2" t="n">
-        <v>2458.479663754177</v>
+        <v>2492.581505946306</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.711008484063</v>
+        <v>2492.581505946306</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.245250222983</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.105918247171</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>479.4455030671483</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>479.4455030671483</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>190.2718927217162</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>190.2718927217162</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1372.955922978507</v>
+        <v>1348.719328075852</v>
       </c>
       <c r="C5" t="n">
-        <v>1003.993406038096</v>
+        <v>1348.719328075852</v>
       </c>
       <c r="D5" t="n">
-        <v>1003.993406038096</v>
+        <v>1348.719328075852</v>
       </c>
       <c r="E5" t="n">
-        <v>618.2051534398513</v>
+        <v>1348.719328075852</v>
       </c>
       <c r="F5" t="n">
-        <v>207.2192486502437</v>
+        <v>937.7334232862445</v>
       </c>
       <c r="G5" t="n">
-        <v>193.2958445888347</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>193.2958445888347</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
         <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.555763042629</v>
+        <v>1738.858660051664</v>
       </c>
       <c r="Y5" t="n">
-        <v>1759.555763042629</v>
+        <v>1348.719328075852</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4658,31 +4658,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.083492693021</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1937.083492693021</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1578.817794086271</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1193.029541488027</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>782.043636698419</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4846,10 +4846,10 @@
         <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.683332757143</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,16 +5138,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>596.6625674470428</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>596.6625674470428</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>596.6625674470428</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>596.6625674470428</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>449.7726199491324</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W13" t="n">
-        <v>999.1036114208126</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X13" t="n">
-        <v>999.1036114208126</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="Y13" t="n">
-        <v>778.3110322772825</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5263,7 +5263,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5275,55 +5275,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2949.638265046256</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>360.5895482553301</v>
+        <v>874.540472347267</v>
       </c>
       <c r="C16" t="n">
-        <v>360.5895482553301</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D16" t="n">
-        <v>360.5895482553301</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>192.886711630049</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5472,16 +5472,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>874.540472347267</v>
       </c>
       <c r="Y16" t="n">
-        <v>360.5895482553301</v>
+        <v>874.540472347267</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846822</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518747</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577529</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,13 +5597,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3697.132084008988</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="C19" t="n">
-        <v>3528.195901081081</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D19" t="n">
-        <v>3378.079261668745</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E19" t="n">
-        <v>3378.079261668745</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F19" t="n">
-        <v>3231.189314170835</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G19" t="n">
-        <v>3063.486477545554</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H19" t="n">
         <v>2917.269290763412</v>
@@ -5697,28 +5697,28 @@
         <v>4778.051722419721</v>
       </c>
       <c r="R19" t="n">
-        <v>4688.221265177249</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S19" t="n">
-        <v>4688.221265177249</v>
+        <v>4602.671026182878</v>
       </c>
       <c r="T19" t="n">
-        <v>4466.454649746775</v>
+        <v>4380.904410752403</v>
       </c>
       <c r="U19" t="n">
-        <v>4177.351782872418</v>
+        <v>4091.801543878047</v>
       </c>
       <c r="V19" t="n">
-        <v>4168.197718876188</v>
+        <v>3837.11705567216</v>
       </c>
       <c r="W19" t="n">
-        <v>3878.780548839228</v>
+        <v>3547.699885635199</v>
       </c>
       <c r="X19" t="n">
-        <v>3878.780548839228</v>
+        <v>3319.710334737182</v>
       </c>
       <c r="Y19" t="n">
-        <v>3878.780548839228</v>
+        <v>3098.917755593652</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>2298.517587917026</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318564</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320238</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3274.298451830496</v>
+        <v>3858.203957510973</v>
       </c>
       <c r="C22" t="n">
-        <v>3215.299023758141</v>
+        <v>3689.267774583067</v>
       </c>
       <c r="D22" t="n">
-        <v>3065.182384345805</v>
+        <v>3539.151135170731</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763412</v>
+        <v>3391.238041588338</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763412</v>
+        <v>3244.348094090427</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>3076.645257465146</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>2930.428070683004</v>
       </c>
       <c r="I22" t="n">
         <v>2917.269290763412</v>
@@ -5940,22 +5940,22 @@
         <v>4778.051722419721</v>
       </c>
       <c r="T22" t="n">
-        <v>4556.285106989247</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="U22" t="n">
-        <v>4267.18224011489</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="V22" t="n">
-        <v>4012.497751909003</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="W22" t="n">
-        <v>3723.080581872043</v>
+        <v>4488.63455238276</v>
       </c>
       <c r="X22" t="n">
-        <v>3495.091030974026</v>
+        <v>4260.645001484743</v>
       </c>
       <c r="Y22" t="n">
-        <v>3274.298451830496</v>
+        <v>4039.852422341213</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5992,25 +5992,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.866738172571</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>278.5282561439412</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C25" t="n">
-        <v>245.6776738607302</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,49 +6150,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892244</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598109</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518522</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952181</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104696</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862224</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.82712468905</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258576</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258576</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1198.376021052689</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>908.9588510157284</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>680.9693001177111</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y25" t="n">
-        <v>460.176720974181</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,64 +6214,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232733</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946818</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.78330633104</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839444</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1913.143022925515</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1721.457138752342</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1499.690523321867</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1499.690523321867</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1245.00603511598</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>955.5888650790198</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>727.5993141810025</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786342</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>818.2062848686785</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522033</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193958</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420605</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320241</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>845.1241201853867</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="C31" t="n">
-        <v>706.4876447660638</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="D31" t="n">
-        <v>556.371005353728</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839444</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057174</v>
+        <v>3985.665898699243</v>
       </c>
       <c r="V31" t="n">
-        <v>1475.554715057174</v>
+        <v>3730.981410493357</v>
       </c>
       <c r="W31" t="n">
-        <v>1475.554715057174</v>
+        <v>3441.564240456396</v>
       </c>
       <c r="X31" t="n">
-        <v>1247.565164159156</v>
+        <v>3213.574689558379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1026.772585015626</v>
+        <v>2992.782110414849</v>
       </c>
     </row>
     <row r="32">
@@ -6679,43 +6679,43 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1797.117834600128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2330.649739272053</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330835</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107236</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6782,7 +6782,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320243</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3609.742404772629</v>
+        <v>3092.649987000255</v>
       </c>
       <c r="C34" t="n">
-        <v>3440.806221844722</v>
+        <v>2923.713804072348</v>
       </c>
       <c r="D34" t="n">
-        <v>3290.689582432386</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="E34" t="n">
-        <v>3142.776488849993</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="F34" t="n">
-        <v>2995.886541352083</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="G34" t="n">
         <v>2917.269290763411</v>
@@ -6891,19 +6891,19 @@
         <v>4556.285106989246</v>
       </c>
       <c r="U34" t="n">
-        <v>4556.285106989246</v>
+        <v>4267.182240114889</v>
       </c>
       <c r="V34" t="n">
-        <v>4301.600618783359</v>
+        <v>4012.497751909003</v>
       </c>
       <c r="W34" t="n">
-        <v>4012.183448746398</v>
+        <v>3723.080581872042</v>
       </c>
       <c r="X34" t="n">
-        <v>4012.183448746398</v>
+        <v>3495.091030974025</v>
       </c>
       <c r="Y34" t="n">
-        <v>3791.390869602868</v>
+        <v>3274.298451830495</v>
       </c>
     </row>
     <row r="35">
@@ -6952,13 +6952,13 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,13 +6970,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7019,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7140,7 +7140,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>374.5351764602888</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,13 +7162,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7177,19 +7177,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2730.494725501681</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3610.459375831136</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>657.5623770791274</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="C40" t="n">
-        <v>488.6261941512205</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D40" t="n">
-        <v>338.5095547388847</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E40" t="n">
-        <v>190.5964611564916</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F40" t="n">
-        <v>190.5964611564916</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7368,16 +7368,16 @@
         <v>1577.410141987875</v>
       </c>
       <c r="V40" t="n">
-        <v>1577.410141987875</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W40" t="n">
-        <v>1287.992971950915</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X40" t="n">
-        <v>1060.003421052897</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="Y40" t="n">
-        <v>839.2108419093671</v>
+        <v>1033.308483745028</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7441,16 +7441,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3234.118567273712</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="C43" t="n">
-        <v>3065.182384345805</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="D43" t="n">
-        <v>3065.182384345805</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="E43" t="n">
-        <v>2917.269290763412</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="F43" t="n">
-        <v>2917.269290763412</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="G43" t="n">
-        <v>2917.269290763412</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="H43" t="n">
-        <v>2917.269290763412</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I43" t="n">
         <v>2917.269290763412</v>
@@ -7593,28 +7593,28 @@
         <v>4778.051722419721</v>
       </c>
       <c r="R43" t="n">
-        <v>4778.051722419721</v>
+        <v>4710.034122707466</v>
       </c>
       <c r="S43" t="n">
-        <v>4586.365838246547</v>
+        <v>4518.348238534292</v>
       </c>
       <c r="T43" t="n">
-        <v>4364.599222816073</v>
+        <v>4296.581623103818</v>
       </c>
       <c r="U43" t="n">
-        <v>4075.496355941717</v>
+        <v>4007.478756229461</v>
       </c>
       <c r="V43" t="n">
-        <v>3820.81186773583</v>
+        <v>3752.794268023575</v>
       </c>
       <c r="W43" t="n">
-        <v>3531.394697698869</v>
+        <v>3463.377097986614</v>
       </c>
       <c r="X43" t="n">
-        <v>3303.405146800852</v>
+        <v>3235.387547088596</v>
       </c>
       <c r="Y43" t="n">
-        <v>3234.118567273712</v>
+        <v>3014.594967945066</v>
       </c>
     </row>
     <row r="44">
@@ -7636,46 +7636,46 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074186</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972631</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750616</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.328657580441</v>
+        <v>2091.135264483404</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807085</v>
+        <v>2637.914081542186</v>
       </c>
       <c r="O44" t="n">
-        <v>4010.91467207581</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432986</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331038</v>
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494863</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939011</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193695</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320332</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454347</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.0000320088</v>
+        <v>1715.000032008793</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426853</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902954</v>
+        <v>2436.46090290295</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7766,7 +7766,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>506.8067350374725</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>506.8067350374725</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>506.8067350374725</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>506.8067350374725</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374725</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121915</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300493</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953295</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442051</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927004</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518525</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952183</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104697</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1788.793390196224</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1499.690523321868</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1245.006035115981</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>955.58886507902</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>727.5993141810027</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.8067350374725</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>258.6211785616921</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8938,10 +8938,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>77.35795430876988</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>29.61882225791987</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476822</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>132.9990175570131</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476862</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>201.9664098701132</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>241.9338129178253</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>192.1853085771353</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>67.53663776706105</v>
+        <v>344.7025836476865</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>56.46377393745652</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>69.34270184147189</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>98.23985682671265</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>187.6205372139423</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>243.0751199675608</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>108.8373873069964</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>155.1558819211509</v>
       </c>
       <c r="C25" t="n">
-        <v>134.7247446382489</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>46.16371392265062</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696682</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C31" t="n">
-        <v>29.99671043349818</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>88.19473017624335</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>112.4945564668043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>86.48057356586096</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>71.94073581801202</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143133</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>21.59472895491479</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.9909396202262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004763</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S46" t="n">
-        <v>189.769025331442</v>
+        <v>16.1421360569673</v>
       </c>
       <c r="T46" t="n">
-        <v>53.67437412678098</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838315.4728636292</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838315.4728636297</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="F2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="G2" t="n">
         <v>575768.5909861256</v>
       </c>
       <c r="H2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.590986126</v>
       </c>
       <c r="I2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="J2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="K2" t="n">
         <v>575768.5909861256</v>
@@ -26346,16 +26346,16 @@
         <v>575768.5909861258</v>
       </c>
       <c r="M2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="N2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="O2" t="n">
         <v>575768.5909861259</v>
       </c>
       <c r="P2" t="n">
-        <v>575768.5909861253</v>
+        <v>575768.5909861256</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-8.128923767556743e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575409</v>
       </c>
       <c r="C4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575409</v>
       </c>
       <c r="D4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575409</v>
       </c>
       <c r="E4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="F4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="G4" t="n">
-        <v>23732.20458603888</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="H4" t="n">
-        <v>23732.20458603888</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="I4" t="n">
-        <v>23732.2045860388</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="J4" t="n">
-        <v>23732.20458603885</v>
+        <v>24062.11227677957</v>
       </c>
       <c r="K4" t="n">
-        <v>23732.20458603891</v>
+        <v>24062.11227677957</v>
       </c>
       <c r="L4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677957</v>
       </c>
       <c r="M4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677957</v>
       </c>
       <c r="N4" t="n">
-        <v>23732.204586039</v>
+        <v>24062.11227677957</v>
       </c>
       <c r="O4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677953</v>
       </c>
       <c r="P4" t="n">
-        <v>23732.20458603914</v>
+        <v>24062.1122767796</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26490,13 +26490,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="J5" t="n">
-        <v>96383.51825371367</v>
-      </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371358</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275169.3871527223</v>
+        <v>-276011.2756838901</v>
       </c>
       <c r="C6" t="n">
-        <v>314798.492061822</v>
+        <v>313956.6035306548</v>
       </c>
       <c r="D6" t="n">
-        <v>314798.4920618218</v>
+        <v>313956.6035306543</v>
       </c>
       <c r="E6" t="n">
-        <v>-271724.5458470335</v>
+        <v>-272054.4535377739</v>
       </c>
       <c r="F6" t="n">
-        <v>455652.8681463732</v>
+        <v>455322.9604556325</v>
       </c>
       <c r="G6" t="n">
-        <v>455652.8681463731</v>
+        <v>455322.9604556324</v>
       </c>
       <c r="H6" t="n">
-        <v>455652.8681463733</v>
+        <v>455322.9604556328</v>
       </c>
       <c r="I6" t="n">
-        <v>455652.8681463738</v>
+        <v>455322.9604556323</v>
       </c>
       <c r="J6" t="n">
-        <v>279229.6489537804</v>
+        <v>278899.7412630394</v>
       </c>
       <c r="K6" t="n">
-        <v>455652.868146373</v>
+        <v>455322.9604556324</v>
       </c>
       <c r="L6" t="n">
-        <v>455652.8681463733</v>
+        <v>455322.9604556325</v>
       </c>
       <c r="M6" t="n">
-        <v>326010.5533074283</v>
+        <v>325680.6456166876</v>
       </c>
       <c r="N6" t="n">
-        <v>455652.8681463731</v>
+        <v>455322.9604556327</v>
       </c>
       <c r="O6" t="n">
-        <v>455652.8681463733</v>
+        <v>455322.9604556327</v>
       </c>
       <c r="P6" t="n">
-        <v>455652.868146375</v>
+        <v>455322.9604556328</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,10 +26752,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593295</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.5813001752246</v>
+        <v>26.37220616258622</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27584,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>112.6140846022836</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>14.68572197879223</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13.97198210407575</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>168.8186107007394</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>16.03727598905937</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>126.0489046421611</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31861,7 +31861,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33502,10 +33502,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681583</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844653</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974794</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953976</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003791</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L44" t="n">
-        <v>691.356529362317</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574969</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990094997</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099035</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746392</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781674</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806918</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451114</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345266</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502559</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798524</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752231</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353272</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138779</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233455</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837904</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970232</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002912</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987477</v>
+        <v>299.2156706987508</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905536</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238302</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898467</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U45" t="n">
-        <v>0.154213684046221</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430531</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311873</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451741999</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297385</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702017</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909881</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316422</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883105</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085992</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802161</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895875</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712186</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553025</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112267</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780291</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>766.6741794499112</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35509,7 +35509,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
@@ -35658,10 +35658,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>629.6597897216814</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>485.2089366502522</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359016</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>588.5891319493451</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934763</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359052</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>539.1576964255137</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>697.5239273101574</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37150,10 +37150,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37329,7 +37329,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37545,10 +37545,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37560,7 +37560,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>590.9472947965072</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687113</v>
+        <v>359.8836161407861</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865553986</v>
+        <v>661.3366991265649</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427802</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230566</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N44" t="n">
-        <v>989.648759824893</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>575.5896386552778</v>
+        <v>852.7555845359052</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193697</v>
+        <v>720.560694390854</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037179</v>
+        <v>463.1092954636239</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152063</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597637</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609682</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340037</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013271</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004572</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P45" t="n">
-        <v>313.635950985961</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127293</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306577</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443188</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701972</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934828</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.856946167539</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226389</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451096</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789312</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/2000000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Output Files/2000000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261190.585011891</v>
+        <v>2259700.365562747</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095104</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>148.0435066463853</v>
+        <v>129.7857003665475</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>399.0984480420028</v>
+        <v>317.7824998350705</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4.726971031682301</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>40.09050805626336</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598869</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.60281064416391</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>208.9978294690249</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.607764387321</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>106.747337237533</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.2419515106229</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1666,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>69.00696427191518</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>71.94245653172798</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.6760982607864</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>197.4604988112217</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.76843874739671</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>114.474660549147</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.380068175847704</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796243</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710095</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>80.76624753276687</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3681,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>13.42874471570538</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.33742371513254</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744746</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2492.581505946306</v>
+        <v>2566.052423981306</v>
       </c>
       <c r="T2" t="n">
-        <v>2492.581505946306</v>
+        <v>2347.417756953369</v>
       </c>
       <c r="U2" t="n">
-        <v>2492.581505946306</v>
+        <v>2093.65597159146</v>
       </c>
       <c r="V2" t="n">
-        <v>2492.581505946306</v>
+        <v>1762.593084247889</v>
       </c>
       <c r="W2" t="n">
-        <v>2492.581505946306</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X2" t="n">
-        <v>2119.115747685226</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>2119.115747685226</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1348.719328075852</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1348.719328075852</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="D5" t="n">
-        <v>1348.719328075852</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="E5" t="n">
-        <v>1348.719328075852</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="F5" t="n">
-        <v>937.7334232862445</v>
+        <v>374.9354058961932</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312744</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312744</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.858660051664</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1348.719328075852</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>431.1223972961881</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>262.1225970345205</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>104.3742244670506</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>108.3618485648678</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0200655508536</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="C10" t="n">
-        <v>517.0200655508536</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="D10" t="n">
-        <v>517.0200655508536</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="E10" t="n">
-        <v>517.0200655508536</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="T10" t="n">
-        <v>517.0200655508536</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="U10" t="n">
-        <v>517.0200655508536</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="V10" t="n">
-        <v>517.0200655508536</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="W10" t="n">
-        <v>517.0200655508536</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="X10" t="n">
-        <v>517.0200655508536</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.0200655508536</v>
+        <v>702.2675593133392</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5050,13 +5050,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5111,22 +5111,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5135,7 +5135,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V13" t="n">
-        <v>1453.060509258584</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="W13" t="n">
-        <v>1453.060509258584</v>
+        <v>1412.241807861855</v>
       </c>
       <c r="X13" t="n">
-        <v>1453.060509258584</v>
+        <v>1184.252256963838</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>963.459677820308</v>
       </c>
     </row>
     <row r="14">
@@ -5278,25 +5278,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.540472347267</v>
+        <v>560.358900722199</v>
       </c>
       <c r="C16" t="n">
-        <v>804.8364680322012</v>
+        <v>560.358900722199</v>
       </c>
       <c r="D16" t="n">
-        <v>654.7198286198654</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384228</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>874.540472347267</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X16" t="n">
-        <v>874.540472347267</v>
+        <v>962.7999446959689</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.540472347267</v>
+        <v>742.0073655524387</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5521,13 +5521,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
@@ -5554,7 +5554,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,7 +5597,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320243</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>4602.671026182878</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>4380.904410752403</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>4091.801543878047</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>3837.11705567216</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>3547.699885635199</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>3319.710334737182</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>3098.917755593652</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5740,13 +5740,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5758,13 +5758,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789528</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3858.203957510973</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3689.267774583067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3539.151135170731</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3391.238041588338</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.348094090427</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3076.645257465146</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2930.428070683004</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4778.051722419721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>4778.051722419721</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>4778.051722419721</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>4488.63455238276</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>4260.645001484743</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>4039.852422341213</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5998,37 +5998,37 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,28 +6068,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>876.4469737784534</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C25" t="n">
-        <v>707.5107908505465</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D25" t="n">
-        <v>557.3941514382108</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1535.121801369965</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>1280.437313164078</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>991.0201431271173</v>
       </c>
       <c r="X25" t="n">
-        <v>901.3723255570255</v>
+        <v>763.0305922291</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.3723255570255</v>
+        <v>542.2380130855698</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6223,55 +6223,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.143022925515</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1721.457138752342</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1499.690523321867</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1499.690523321867</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1245.00603511598</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W28" t="n">
-        <v>955.5888650790198</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X28" t="n">
-        <v>727.5993141810025</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6469,25 +6469,25 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2917.269290763411</v>
+        <v>211.1920047000581</v>
       </c>
       <c r="C31" t="n">
-        <v>2917.269290763411</v>
+        <v>211.1920047000581</v>
       </c>
       <c r="D31" t="n">
-        <v>2917.269290763411</v>
+        <v>211.1920047000581</v>
       </c>
       <c r="E31" t="n">
-        <v>2917.269290763411</v>
+        <v>211.1920047000581</v>
       </c>
       <c r="F31" t="n">
-        <v>2917.269290763411</v>
+        <v>211.1920047000581</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498441978</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.230648292694</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892243</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598108</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518521</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.73316995218</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104695</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862223</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689049</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.7687655736</v>
+        <v>1674.827124689049</v>
       </c>
       <c r="U31" t="n">
-        <v>3985.665898699243</v>
+        <v>1385.724257814693</v>
       </c>
       <c r="V31" t="n">
-        <v>3730.981410493357</v>
+        <v>1131.039769608806</v>
       </c>
       <c r="W31" t="n">
-        <v>3441.564240456396</v>
+        <v>841.6225995718453</v>
       </c>
       <c r="X31" t="n">
-        <v>3213.574689558379</v>
+        <v>613.6330486738279</v>
       </c>
       <c r="Y31" t="n">
-        <v>2992.782110414849</v>
+        <v>392.8404695302978</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3092.649987000255</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>2923.713804072348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>4556.285106989246</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4267.182240114889</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>4012.497751909003</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>3723.080581872042</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>3495.091030974025</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3274.298451830495</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6925,64 +6925,64 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P35" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q35" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690178</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7162,7 +7162,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001586</v>
@@ -7171,55 +7171,55 @@
         <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622691</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294615</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353397</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604877</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261306</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991192</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730112</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.8161967543</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1033.308483745028</v>
+        <v>1120.662598458019</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>951.7264155301117</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>801.6097761177759</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>653.6966825353828</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>506.8067350374724</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="H40" t="n">
         <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1942.779077502979</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1751.093193329806</v>
       </c>
       <c r="T40" t="n">
-        <v>1866.513008862232</v>
+        <v>1751.093193329806</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.410141987875</v>
+        <v>1751.093193329806</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.725653781988</v>
+        <v>1751.093193329806</v>
       </c>
       <c r="W40" t="n">
-        <v>1033.308483745028</v>
+        <v>1751.093193329806</v>
       </c>
       <c r="X40" t="n">
-        <v>1033.308483745028</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y40" t="n">
-        <v>1033.308483745028</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427191</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>4710.034122707466</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>4518.348238534292</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>4296.581623103818</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>4007.478756229461</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>3752.794268023575</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>3463.377097986614</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>3235.387547088596</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>3014.594967945066</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277727</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.60335981148</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483404</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542186</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7724,28 +7724,28 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320235</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008793</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
         <v>1005.387693892251</v>
@@ -7824,7 +7824,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
         <v>1956.343466104703</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476849</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476871</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>344.7025836476865</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>258.6211785616936</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476865</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>73.08464294440428</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>98.23985682671265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>76.67301648648437</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>83.32522828944178</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.1558819211509</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>88.75133939439121</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.16371392265062</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>51.55114770988118</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2354048423647</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>16.14213605696671</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>86.48057356586096</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>75.50340795434195</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.59472895491479</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>16.1421360569673</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636292</v>
       </c>
     </row>
     <row r="12">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="F2" t="n">
         <v>575768.5909861258</v>
@@ -26331,31 +26331,31 @@
         <v>575768.5909861256</v>
       </c>
       <c r="H2" t="n">
-        <v>575768.590986126</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="I2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="J2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="L2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="M2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="N2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="O2" t="n">
         <v>575768.5909861255</v>
       </c>
-      <c r="J2" t="n">
-        <v>575768.5909861255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>575768.5909861256</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>575768.5909861258</v>
-      </c>
-      <c r="M2" t="n">
-        <v>575768.5909861256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="O2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="P2" t="n">
-        <v>575768.5909861256</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.382359039545228e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198439.6015575409</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="C4" t="n">
-        <v>198439.6015575409</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="D4" t="n">
-        <v>198439.6015575409</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="E4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046747</v>
       </c>
       <c r="F4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="G4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="H4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="I4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046756</v>
       </c>
       <c r="J4" t="n">
-        <v>24062.11227677957</v>
+        <v>23726.60550046755</v>
       </c>
       <c r="K4" t="n">
-        <v>24062.11227677957</v>
+        <v>23726.60550046743</v>
       </c>
       <c r="L4" t="n">
-        <v>24062.11227677957</v>
+        <v>23726.60550046755</v>
       </c>
       <c r="M4" t="n">
-        <v>24062.11227677957</v>
+        <v>23726.60550046749</v>
       </c>
       <c r="N4" t="n">
-        <v>24062.11227677957</v>
+        <v>23726.60550046746</v>
       </c>
       <c r="O4" t="n">
-        <v>24062.11227677953</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="P4" t="n">
-        <v>24062.1122767796</v>
+        <v>23726.60550046754</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26490,7 +26490,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-276011.2756838901</v>
+        <v>-275155.098895553</v>
       </c>
       <c r="C6" t="n">
-        <v>313956.6035306548</v>
+        <v>314812.7803189916</v>
       </c>
       <c r="D6" t="n">
-        <v>313956.6035306543</v>
+        <v>314812.7803189916</v>
       </c>
       <c r="E6" t="n">
-        <v>-272054.4535377739</v>
+        <v>-272390.9016637201</v>
       </c>
       <c r="F6" t="n">
-        <v>455322.9604556325</v>
+        <v>454986.5123296863</v>
       </c>
       <c r="G6" t="n">
-        <v>455322.9604556324</v>
+        <v>454986.5123296864</v>
       </c>
       <c r="H6" t="n">
-        <v>455322.9604556328</v>
+        <v>454986.5123296863</v>
       </c>
       <c r="I6" t="n">
-        <v>455322.9604556323</v>
+        <v>454986.5123296867</v>
       </c>
       <c r="J6" t="n">
-        <v>278899.7412630394</v>
+        <v>278563.2931370938</v>
       </c>
       <c r="K6" t="n">
-        <v>455322.9604556324</v>
+        <v>454986.5123296867</v>
       </c>
       <c r="L6" t="n">
-        <v>455322.9604556325</v>
+        <v>454986.5123296865</v>
       </c>
       <c r="M6" t="n">
-        <v>325680.6456166876</v>
+        <v>325344.1974907417</v>
       </c>
       <c r="N6" t="n">
-        <v>455322.9604556327</v>
+        <v>454986.5123296867</v>
       </c>
       <c r="O6" t="n">
-        <v>455322.9604556327</v>
+        <v>454986.5123296864</v>
       </c>
       <c r="P6" t="n">
-        <v>455322.9604556328</v>
+        <v>454986.5123296866</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26822,10 +26822,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="O4" t="n">
         <v>1194.51293060493</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.313689883599651e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503752</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.313689883599651e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>26.37220616258622</v>
+        <v>44.63001244242406</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>14.68572197879223</v>
+        <v>96.00167018572449</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>130.238650760656</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>366.785537685448</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858218</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>3.519939310750413</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>16.03727598905937</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.900089281317095e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-7.313689883599651e-14</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-7.313689883599651e-14</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-5.245731145821016e-13</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987508</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.047659544311</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>897.0044190605962</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359061</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400184</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789241</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>766.6741794499126</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407861</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265649</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359052</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P44" t="n">
-        <v>720.560694390854</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636239</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127293</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306614</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/2000000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Output Files/2000000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2259700.365562747</v>
+        <v>2263105.856687196</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095104</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.51033041214347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>317.7824998350705</v>
+        <v>394.7452989739931</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1074,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>4.726971031682301</v>
+        <v>4.726971031682526</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>40.09050805626336</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>310.2076895021003</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.60281064416391</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.607764387321</v>
+        <v>294.6077643873219</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.747337237533</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>71.94245653172798</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>87.52274688849843</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>129.3802801624002</v>
       </c>
       <c r="U25" t="n">
-        <v>197.4604988112217</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.921725653454</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>114.474660549147</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3243,13 +3243,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>270.3808622796243</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,7 +3483,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3678,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>13.42874471570538</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>207.7087768350829</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626212</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="C5" t="n">
-        <v>785.9213106858008</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D5" t="n">
-        <v>785.9213106858008</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="E5" t="n">
-        <v>785.9213106858008</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="F5" t="n">
-        <v>374.9354058961932</v>
+        <v>606.1415830515305</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>1386.09000478155</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>578.0123447940985</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="F7" t="n">
-        <v>431.1223972961881</v>
+        <v>431.1223972961883</v>
       </c>
       <c r="G7" t="n">
-        <v>262.1225970345205</v>
+        <v>262.1225970345207</v>
       </c>
       <c r="H7" t="n">
-        <v>104.3742244670506</v>
+        <v>104.3742244670509</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035238</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631121</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>494.1501011631121</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>108.3618485648678</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143457</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>702.2675593133392</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>702.2675593133392</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>552.1509199010035</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5029,16 +5029,16 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551636</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001601</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
@@ -5056,22 +5056,22 @@
         <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604875</v>
@@ -5117,22 +5117,22 @@
         <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.961311426849</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>855.6340846510827</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C13" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D13" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104703</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104703</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898816</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.241807861855</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.252256963838</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.459677820308</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="14">
@@ -5284,10 +5284,10 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
         <v>2667.236715577531</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.358900722199</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C16" t="n">
-        <v>560.358900722199</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D16" t="n">
         <v>487.6897527103525</v>
@@ -5466,22 +5466,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.789495593986</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X16" t="n">
-        <v>962.7999446959689</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.0073655524387</v>
+        <v>806.7425750505952</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,10 +5500,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5618,16 +5618,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5715,10 +5715,10 @@
         <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5834,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5943,19 +5943,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N24" t="n">
         <v>1715.000032008794</v>
@@ -6089,19 +6089,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.5895482553301</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C25" t="n">
-        <v>360.5895482553301</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D25" t="n">
-        <v>360.5895482553301</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1735.825857183039</v>
       </c>
       <c r="U25" t="n">
-        <v>1535.121801369965</v>
+        <v>1735.825857183039</v>
       </c>
       <c r="V25" t="n">
-        <v>1280.437313164078</v>
+        <v>1481.141368977152</v>
       </c>
       <c r="W25" t="n">
-        <v>991.0201431271173</v>
+        <v>1191.724198940191</v>
       </c>
       <c r="X25" t="n">
-        <v>763.0305922291</v>
+        <v>963.7346480421742</v>
       </c>
       <c r="Y25" t="n">
-        <v>542.2380130855698</v>
+        <v>742.942068898644</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6223,55 +6223,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>351.3014367967918</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>685.1208104866382</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
@@ -6317,13 +6317,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6414,22 +6414,22 @@
         <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208122</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838516</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858343</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423041</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390117</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>211.1920047000581</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>211.1920047000581</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>211.1920047000581</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>211.1920047000581</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>211.1920047000581</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498441978</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.230648292694</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892243</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598108</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518521</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.73316995218</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104695</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862223</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689049</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689049</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1385.724257814693</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.039769608806</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>841.6225995718453</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>613.6330486738279</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>392.8404695302978</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139994</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6891,10 +6891,10 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208122</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
         <v>725.9916293201816</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888612</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232734</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.49719767968</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188668</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419723</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946818</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,25 +7110,25 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
         <v>1015.408799357142</v>
@@ -7140,7 +7140,7 @@
         <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786342</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690178</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,67 +7159,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622691</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294615</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353397</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232734</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.49719767968</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188668</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419723</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946818</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.78330633104</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604877</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261306</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991192</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730112</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.8161967543</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458019</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301117</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177759</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353828</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374724</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121914</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
         <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1942.779077502979</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1751.093193329806</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1751.093193329806</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1751.093193329806</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V40" t="n">
-        <v>1751.093193329806</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W40" t="n">
-        <v>1751.093193329806</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X40" t="n">
-        <v>1523.103642431788</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.311063288258</v>
+        <v>974.4454116758762</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427191</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867998</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>3316.966490094645</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,22 +7584,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
         <v>1270.093287563029</v>
@@ -7636,40 +7636,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7806,10 +7806,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,19 +7821,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
         <v>1559.196154437386</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395179</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400279</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704246</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>316.10123714542</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>344.7025836476849</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476871</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476865</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493981</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>258.6211785616936</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>295.4822118493972</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476844</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.08464294440428</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983812</v>
@@ -23466,13 +23466,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>76.67301648648437</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>131.0619064635964</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>90.16866911376903</v>
       </c>
       <c r="U25" t="n">
-        <v>88.75133939439121</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>51.55114770988118</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>16.14213605696671</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>75.50340795434195</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25608,16 +25608,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>10.87587651701185</v>
       </c>
     </row>
     <row r="41">
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838315.4728636292</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="F2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="G2" t="n">
+        <v>575768.5909861255</v>
+      </c>
+      <c r="H2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="I2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="J2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="K2" t="n">
         <v>575768.5909861256</v>
       </c>
-      <c r="H2" t="n">
-        <v>575768.5909861255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>575768.5909861259</v>
       </c>
-      <c r="K2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>575768.5909861261</v>
+      </c>
+      <c r="N2" t="n">
         <v>575768.5909861256</v>
       </c>
-      <c r="M2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="N2" t="n">
-        <v>575768.5909861258</v>
-      </c>
       <c r="O2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="P2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861259</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>2.382359039545228e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>197583.4247692038</v>
       </c>
       <c r="E4" t="n">
-        <v>23726.60550046747</v>
+        <v>23726.60550046751</v>
       </c>
       <c r="F4" t="n">
         <v>23726.60550046754</v>
       </c>
       <c r="G4" t="n">
-        <v>23726.60550046754</v>
+        <v>23726.6055004675</v>
       </c>
       <c r="H4" t="n">
         <v>23726.60550046754</v>
       </c>
       <c r="I4" t="n">
-        <v>23726.60550046756</v>
+        <v>23726.60550046755</v>
       </c>
       <c r="J4" t="n">
+        <v>23726.60550046754</v>
+      </c>
+      <c r="K4" t="n">
         <v>23726.60550046755</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23726.60550046743</v>
       </c>
       <c r="L4" t="n">
         <v>23726.60550046755</v>
       </c>
       <c r="M4" t="n">
-        <v>23726.60550046749</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="N4" t="n">
-        <v>23726.60550046746</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="O4" t="n">
         <v>23726.60550046754</v>
       </c>
       <c r="P4" t="n">
-        <v>23726.60550046754</v>
+        <v>23726.60550046753</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-275155.098895553</v>
       </c>
       <c r="C6" t="n">
-        <v>314812.7803189916</v>
+        <v>314812.7803189917</v>
       </c>
       <c r="D6" t="n">
-        <v>314812.7803189916</v>
+        <v>314812.7803189915</v>
       </c>
       <c r="E6" t="n">
-        <v>-272390.9016637201</v>
+        <v>-271786.1422516879</v>
       </c>
       <c r="F6" t="n">
-        <v>454986.5123296863</v>
+        <v>455591.2717417185</v>
       </c>
       <c r="G6" t="n">
-        <v>454986.5123296864</v>
+        <v>455591.2717417186</v>
       </c>
       <c r="H6" t="n">
-        <v>454986.5123296863</v>
+        <v>455591.2717417189</v>
       </c>
       <c r="I6" t="n">
-        <v>454986.5123296867</v>
+        <v>455591.271741719</v>
       </c>
       <c r="J6" t="n">
-        <v>278563.2931370938</v>
+        <v>279168.0525491259</v>
       </c>
       <c r="K6" t="n">
-        <v>454986.5123296867</v>
+        <v>455591.2717417186</v>
       </c>
       <c r="L6" t="n">
-        <v>454986.5123296865</v>
+        <v>455591.2717417189</v>
       </c>
       <c r="M6" t="n">
-        <v>325344.1974907417</v>
+        <v>325948.9569027742</v>
       </c>
       <c r="N6" t="n">
-        <v>454986.5123296867</v>
+        <v>455591.2717417186</v>
       </c>
       <c r="O6" t="n">
-        <v>454986.5123296864</v>
+        <v>455591.2717417186</v>
       </c>
       <c r="P6" t="n">
-        <v>454986.5123296866</v>
+        <v>455591.271741719</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26822,10 +26822,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.512930604931</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.512930604931</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
         <v>1194.51293060493</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.313689883599651e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503752</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.313689883599651e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>44.63001244242406</v>
+        <v>44.63001244242403</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1051426060689</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.819789884688</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>96.00167018572449</v>
+        <v>19.03887104680189</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.238650760656</v>
+        <v>130.2386507606557</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>366.785537685448</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>39.03327921531269</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.519939310750413</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.690395030585946e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.900089281317095e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-7.313689883599651e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-7.313689883599651e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-5.245731145821016e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.7086478970249</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33511,7 +33511,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,10 +35029,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.392610473064</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282469</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193716</v>
@@ -35652,13 +35652,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>258.323638735755</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525805</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
         <v>988.434649323059</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36992,7 +36992,7 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.047659544311</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37071,25 +37071,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>771.691351537752</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>897.0044190605962</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37159,7 +37159,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>323.786018525724</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359061</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400184</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789241</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>751.0723262417303</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>766.6741794499126</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>751.0723262417293</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359034</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
